--- a/biology/Botanique/Tillandsia_fluminensis/Tillandsia_fluminensis.xlsx
+++ b/biology/Botanique/Tillandsia_fluminensis/Tillandsia_fluminensis.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Tillandsia fluminensis Mez est une plante de la famille des Bromeliaceae, originaire du Brésil.
 L'épithète fluminensis signifie « de Rio » (Rio = « fleuve » et « fleuve » = flumen).
@@ -512,13 +524,15 @@
           <t>Protologue et Type nomenclatural</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Tillandsia fluminensis Mez in Mart., Fl. Bras. 3(3): 592, n° 11 (1894)
-Diagnose originale[1] :
+Diagnose originale :
 « TILLANDSIA FLUMINENSIS n. sp. foliis dense rosulatis utriculum haud efformantibus, quaquaversis, e late lineari perlonge acutis, dense lepidibus maximis obtectis +/- sericantibus; inflorescentia scapo elata, multiflora, compacte e spicis 6-10 composita paniculata, folia subaequante vel minute superante; bracteis floralibus late ovatis breviterque acutis, dorso lepidotis, sepala superantibus; sepalis connatis, antico cum reliquis ad 1 mm., posticis inter sese ad 2 mm. connatis, dorso paullo lepidotis; petalis lamina late ovali, suberecta; staminibus quam petala brevioribus, antheris longe acutis; stylo antheras superante. »
 Type :
-leg. B. Luschnath, s.n. ; « Brasiliae prov. Rio de Janeiro, circa urbem » ; Herb. Petrop[1].
+leg. B. Luschnath, s.n. ; « Brasiliae prov. Rio de Janeiro, circa urbem » ; Herb. Petrop.
 leg. B. Luschnath, s.n. ; « Brasilien: Rio de Janeiro » ; Isotypus B [ Planche en ligne ]</t>
         </is>
       </c>
@@ -548,6 +562,8 @@
         </is>
       </c>
       <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -573,9 +589,11 @@
           <t>Écologie et habitat</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Typologie : plante herbacée vivace en rosette acaule monocarpique vivace par ses rejets latéraux ; épiphyte[1] ou saxicole[1].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Typologie : plante herbacée vivace en rosette acaule monocarpique vivace par ses rejets latéraux ; épiphyte ou saxicole.
 Habitat : ?
 Altitude : ?</t>
         </is>
@@ -605,11 +623,13 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Amérique du sud :
  Brésil
-Rio de Janeiro[1],[2]</t>
+Rio de Janeiro,</t>
         </is>
       </c>
     </row>
@@ -638,6 +658,8 @@
         </is>
       </c>
       <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
